--- a/pred_ohlcv/54_21/2020-01-15 WAXP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 WAXP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-132729.57545999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-741332.3382903599</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-714211.2897903599</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-714211.2897903599</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-711727.6838903599</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-711779.6838903599</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-710788.23589036</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-710788.23589036</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-764390.1100903599</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-794390.1100903599</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-638301.5706928999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1038948.79616392</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-906776.0994209198</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-882933.7362209198</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-889690.7137209198</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-712750.0813209197</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-627978.5300209196</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-646278.5300209196</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-652361.3118626596</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-648393.6134626596</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-768823.1497626597</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-787496.6528626598</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1816056.48886266</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2044895.01656266</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2043888.58426266</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 WAXP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 WAXP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-132729.57545999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-715732.3382903599</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1038948.79616392</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-906776.0994209198</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-882933.7362209198</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-889690.7137209198</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-712750.0813209197</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-627978.5300209196</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-646278.5300209196</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-650678.5300209196</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-787401.5183209196</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-652361.3118626596</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-648393.6134626596</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-646156.5665626597</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-768823.1497626597</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1485847.53646266</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1808356.48886266</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1816056.48886266</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1816056.48886266</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2044895.01656266</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2043888.58426266</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
